--- a/Dd R.xlsx
+++ b/Dd R.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\S2\Maraton-du-web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0F1E91B-6DF7-4776-94E1-606AB71C95F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091945F6-51BD-46F6-8B9A-FED50CDAB8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12456" xr2:uid="{0DA6C1E5-DD6C-4085-8DB9-0209E7DBBF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DA6C1E5-DD6C-4085-8DB9-0209E7DBBF46}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Evolution" sheetId="2" r:id="rId1"/>
+    <sheet name="Moustache" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Nom de votre collectivité</t>
   </si>
@@ -108,6 +109,21 @@
   </si>
   <si>
     <t>Densément peuplé</t>
+  </si>
+  <si>
+    <t>Années</t>
+  </si>
+  <si>
+    <t>Biodéchets</t>
+  </si>
+  <si>
+    <t>Verre</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>Emballages</t>
   </si>
 </sst>
 </file>
@@ -488,21 +504,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DC08B4-C1F1-4FDD-944A-C39EE7EB1F79}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2002</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2005</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2007</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="B9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2010</v>
+      </c>
+      <c r="B11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2011</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2013</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2D27F4-2D67-4840-A89D-3F2C7F073869}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -524,7 +679,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -535,7 +690,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,7 +701,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -557,7 +712,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -568,7 +723,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -579,7 +734,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -590,7 +745,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -601,7 +756,7 @@
         <v>431.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -612,7 +767,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -623,7 +778,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -634,7 +789,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -645,7 +800,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -656,7 +811,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -667,7 +822,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -678,7 +833,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -689,7 +844,7 @@
         <v>2371.92</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -700,7 +855,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>

--- a/Dd R.xlsx
+++ b/Dd R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091945F6-51BD-46F6-8B9A-FED50CDAB8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDCDAE4-A7F8-4EC0-9B75-DB3F67F950DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DA6C1E5-DD6C-4085-8DB9-0209E7DBBF46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{0DA6C1E5-DD6C-4085-8DB9-0209E7DBBF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Evolution" sheetId="2" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,8 +537,14 @@
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
       <c r="D2">
         <v>0</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,6 +554,15 @@
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -556,6 +571,15 @@
       <c r="B4">
         <v>30</v>
       </c>
+      <c r="C4">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -564,6 +588,15 @@
       <c r="B5">
         <v>37</v>
       </c>
+      <c r="C5">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -572,6 +605,15 @@
       <c r="B6">
         <v>35</v>
       </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -580,6 +622,15 @@
       <c r="B7">
         <v>33</v>
       </c>
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -588,6 +639,15 @@
       <c r="B8">
         <v>35</v>
       </c>
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -596,6 +656,15 @@
       <c r="B9">
         <v>37</v>
       </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -604,6 +673,15 @@
       <c r="B10">
         <v>38</v>
       </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -612,6 +690,15 @@
       <c r="B11">
         <v>38</v>
       </c>
+      <c r="C11">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -620,6 +707,15 @@
       <c r="B12">
         <v>40</v>
       </c>
+      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -628,6 +724,15 @@
       <c r="B13">
         <v>40</v>
       </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -635,6 +740,15 @@
       </c>
       <c r="B14">
         <v>40</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
